--- a/Text/Reimers_Merle_text.xlsx
+++ b/Text/Reimers_Merle_text.xlsx
@@ -174,7 +174,7 @@
     <t>a small room with a bed in a futuristic spaceship. The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light. Soft colors.</t>
   </si>
   <si>
-    <t>Gläsernes_Röhre</t>
+    <t>Gläserne_Röhre</t>
   </si>
   <si>
     <t>The walls, ceiling and floor are made of a transparent material that allows light to pass through. The walls are decorated with colorful stained glass depicting abstract shapes and patterns. The stained glass is reminiscent of the windows of a church and bathes the room in a mystical light.</t>
